--- a/repc_config.xlsx
+++ b/repc_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\My Drive\05 Python\Python Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23A41C6D-9E5B-4AB3-AAA0-0E2F2950982D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CBF666-6AB9-47D7-9DB6-1F61148CB63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9570" yWindow="5505" windowWidth="28830" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2880" windowWidth="28830" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preisinfo" sheetId="1" r:id="rId1"/>
@@ -623,18 +623,19 @@
   <dimension ref="A1:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="24.140625" bestFit="1" customWidth="1"/>

--- a/repc_config.xlsx
+++ b/repc_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Patrick\My Drive\05 Python\Python Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93CBF666-6AB9-47D7-9DB6-1F61148CB63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F79D53-FC12-494E-904F-6D7824E8C0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="2880" windowWidth="28830" windowHeight="15360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Preisinfo" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
   <si>
     <t>Bundesland</t>
   </si>
@@ -177,6 +177,12 @@
   </si>
   <si>
     <t>H-Kostenfaktor</t>
+  </si>
+  <si>
+    <t>Mallorca</t>
+  </si>
+  <si>
+    <t>Kansas</t>
   </si>
 </sst>
 </file>
@@ -314,7 +320,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -339,6 +345,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,6 +928,22 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="17">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
